--- a/Jogos_do_Dia/2023-09-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI70"/>
+  <dimension ref="A1:AI72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,100 +633,100 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Shijiazhuang Ever Bright</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.85</v>
+        <v>1.52</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>4.34</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>6.36</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>15.75</v>
+        <v>13.25</v>
       </c>
       <c r="L2" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M2" t="n">
-        <v>4.52</v>
+        <v>3.87</v>
       </c>
       <c r="N2" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="O2" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="U2" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="W2" t="n">
         <v>1.83</v>
       </c>
       <c r="X2" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Z2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE2" t="n">
         <v>1.37</v>
       </c>
-      <c r="AA2" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AF2" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="3">
@@ -748,100 +748,100 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Shijiazhuang Ever Bright</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.15</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="V3" t="n">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.83</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.69</v>
+        <v>2.81</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.2</v>
+        <v>1.62</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="AH3" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="4">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -887,16 +887,16 @@
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -987,52 +987,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="H5" t="n">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>1.33</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.02</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1123,10 +1123,10 @@
         <v>2.9</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="P6" t="n">
         <v>1.44</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="H7" t="n">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="J7" t="n">
         <v>1.02</v>
@@ -1232,16 +1232,16 @@
         <v>9.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N7" t="n">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="O7" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
@@ -1289,19 +1289,19 @@
         <v>2.34</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF7" t="n">
         <v>1.85</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.49</v>
       </c>
       <c r="J8" t="n">
         <v>1.01</v>
@@ -1353,10 +1353,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>1.02</v>
@@ -1468,10 +1468,10 @@
         <v>3.32</v>
       </c>
       <c r="N9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P9" t="n">
         <v>1.39</v>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>1.89</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
@@ -1583,7 +1583,7 @@
         <v>3.35</v>
       </c>
       <c r="N10" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.75</v>
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1698,10 +1698,10 @@
         <v>3.72</v>
       </c>
       <c r="N11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O11" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P11" t="n">
         <v>1.34</v>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>4.33</v>
@@ -1813,10 +1813,10 @@
         <v>4.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>1.29</v>
@@ -1910,10 +1910,10 @@
         <v>2.35</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J13" t="n">
         <v>1.05</v>
@@ -1931,7 +1931,7 @@
         <v>1.8</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P13" t="n">
         <v>1.36</v>
@@ -1997,7 +1997,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,101 +2009,101 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Varaždin</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>2.95</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="K14" t="n">
-        <v>9.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="N14" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="P14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.11</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="V14" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.91</v>
+        <v>1.33</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.38</v>
+        <v>2.72</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2158,10 +2158,10 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O15" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2212,22 +2212,22 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2239,104 +2239,104 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Osijek</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Varaždin</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.97</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N16" t="n">
-        <v>2.13</v>
+        <v>1.66</v>
       </c>
       <c r="O16" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W16" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AB16" t="n">
         <v>1.33</v>
       </c>
-      <c r="Y16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
@@ -2358,76 +2358,76 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Leoben</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="X17" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.58</v>
+        <v>1.12</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.04</v>
+        <v>2.42</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2473,76 +2473,76 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SV Stripfing Weiden</t>
+          <t>Leoben</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2588,76 +2588,76 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>SV Stripfing Weiden</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.65</v>
+        <v>1.88</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="N19" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="O19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="W19" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Germany 2. Bundesliga</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2699,110 +2699,110 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.75</v>
+        <v>2.84</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="N20" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="P20" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.64</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="S20" t="n">
-        <v>2.57</v>
+        <v>1.91</v>
       </c>
       <c r="T20" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="U20" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="V20" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="X20" t="n">
         <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.13</v>
+        <v>1.37</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>3.01</v>
+        <v>2.57</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.52</v>
+        <v>2.33</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Germany 2. Bundesliga</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2814,104 +2814,104 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="H21" t="n">
         <v>3.35</v>
       </c>
       <c r="I21" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="M21" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="N21" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="O21" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.63</v>
+        <v>3.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>1.91</v>
+        <v>2.57</v>
       </c>
       <c r="T21" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="U21" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="W21" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
         <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.37</v>
+        <v>2.13</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.57</v>
+        <v>3.01</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="22">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>5.34</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="I22" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
@@ -2963,10 +2963,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="O22" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="P22" t="n">
         <v>1.25</v>
@@ -3057,10 +3057,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H23" t="n">
-        <v>5.75</v>
+        <v>5.4</v>
       </c>
       <c r="I23" t="n">
         <v>12</v>
@@ -3078,16 +3078,16 @@
         <v>3.92</v>
       </c>
       <c r="N23" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="O23" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="R23" t="n">
         <v>2.4</v>
@@ -3147,7 +3147,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3159,110 +3159,110 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AFC Eskilstuna</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.39</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L24" t="n">
         <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>3.6</v>
+        <v>3.82</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="O24" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="P24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA24" t="n">
         <v>2.1</v>
       </c>
-      <c r="T24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>2.94</v>
-      </c>
       <c r="AB24" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="AI24" t="n">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Germany 3. Liga</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3274,110 +3274,110 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>2.85</v>
+        <v>2.38</v>
       </c>
       <c r="J25" t="n">
         <v>1.03</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="L25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="P25" t="n">
         <v>1.29</v>
       </c>
-      <c r="M25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Q25" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="S25" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="V25" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="W25" t="n">
-        <v>1.82</v>
+        <v>2.33</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9</v>
+        <v>0.33</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="AA25" t="n">
-        <v>3.16</v>
+        <v>2.64</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3389,110 +3389,110 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.93</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.95</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N26" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R26" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.25</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X26" t="n">
         <v>1.75</v>
       </c>
-      <c r="X26" t="n">
-        <v>0.75</v>
-      </c>
       <c r="Y26" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.33</v>
+        <v>3.19</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.51</v>
+        <v>2.44</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.16</v>
+        <v>1.78</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.93</v>
+        <v>2.49</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.35</v>
+        <v>3.48</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,110 +3504,110 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Örebro</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.9</v>
       </c>
-      <c r="N27" t="n">
+      <c r="R27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S27" t="n">
         <v>2.15</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T27" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="U27" t="n">
         <v>1.28</v>
       </c>
       <c r="V27" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="W27" t="n">
-        <v>0.75</v>
+        <v>1.82</v>
       </c>
       <c r="X27" t="n">
-        <v>1.75</v>
+        <v>0.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Germany 3. Liga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3619,110 +3619,110 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>AFC Eskilstuna</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.45</v>
+        <v>2.09</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N28" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="O28" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="P28" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="T28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y28" t="n">
         <v>1.52</v>
       </c>
-      <c r="U28" t="n">
+      <c r="Z28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
         <v>1.27</v>
       </c>
-      <c r="V28" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y28" t="n">
+      <c r="AG28" t="n">
         <v>1.48</v>
       </c>
-      <c r="Z28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1.68</v>
-      </c>
       <c r="AH28" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="AI28" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3734,104 +3734,104 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M29" t="n">
         <v>3.5</v>
       </c>
-      <c r="I29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>13</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3.82</v>
-      </c>
       <c r="N29" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O29" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
       </c>
       <c r="Q29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI29" t="n">
         <v>3.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="30">
@@ -3862,25 +3862,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N30" t="n">
         <v>1.49</v>
@@ -3889,10 +3889,10 @@
         <v>2.39</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R30" t="n">
         <v>1.57</v>
@@ -3901,13 +3901,13 @@
         <v>2.25</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3977,37 +3977,37 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.2</v>
       </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
       <c r="I31" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R31" t="n">
         <v>1.62</v>
@@ -4016,13 +4016,13 @@
         <v>2.2</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W31" t="n">
         <v>0.33</v>
@@ -4092,37 +4092,37 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K32" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q32" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>1.53</v>
@@ -4131,13 +4131,13 @@
         <v>2.38</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W32" t="n">
         <v>2</v>
@@ -4155,34 +4155,34 @@
         <v>3.18</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4194,110 +4194,110 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>3.98</v>
       </c>
       <c r="I33" t="n">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L33" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="N33" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="O33" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="U33" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="V33" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W33" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.76</v>
+        <v>3.33</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Belgium First Division B</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4309,104 +4309,104 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>Dinamo Bucureşti</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FCV Dender EH</t>
+          <t>SSC Farul</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="X34" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.12</v>
+        <v>1.52</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.03</v>
+        <v>1.68</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="35">
@@ -4428,22 +4428,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
         <v>1.02</v>
@@ -4458,10 +4458,10 @@
         <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O35" t="n">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="P35" t="n">
         <v>1.25</v>
@@ -4470,34 +4470,34 @@
         <v>3.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="S35" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="U35" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="V35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>1.48</v>
       </c>
-      <c r="W35" t="n">
-        <v>2</v>
-      </c>
-      <c r="X35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.64</v>
-      </c>
       <c r="Z35" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.17</v>
+        <v>2.76</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -4667,13 +4667,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -4769,95 +4769,95 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dinamo Bucureşti</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SSC Farul</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
         <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>8.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="M38" t="n">
-        <v>3.24</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="O38" t="n">
-        <v>1.65</v>
+        <v>2.47</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.83</v>
+        <v>3.6</v>
       </c>
       <c r="R38" t="n">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="S38" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="U38" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="W38" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="AB38" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>0</v>
@@ -4872,7 +4872,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -4884,80 +4884,80 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Železničar Pančevo</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
-        <v>4.38</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="N39" t="n">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="O39" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W39" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.28</v>
+        <v>1.08</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.91</v>
+        <v>2.8</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -5003,76 +5003,76 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L40" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="N40" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O40" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P40" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="U40" t="n">
         <v>1.25</v>
       </c>
       <c r="V40" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="W40" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X40" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.18</v>
+        <v>1.78</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -5118,76 +5118,76 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.6</v>
+        <v>1.46</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I41" t="n">
-        <v>1.78</v>
+        <v>5.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N41" t="n">
         <v>1.67</v>
       </c>
       <c r="O41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P41" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="S41" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.88</v>
+        <v>1.11</v>
       </c>
       <c r="U41" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="V41" t="n">
-        <v>1.27</v>
+        <v>2.55</v>
       </c>
       <c r="W41" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.68</v>
+        <v>0.92</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.97</v>
+        <v>2.29</v>
       </c>
       <c r="AB41" t="n">
         <v>0</v>
@@ -5217,7 +5217,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -5229,110 +5229,110 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.82</v>
+        <v>3.6</v>
       </c>
       <c r="H42" t="n">
-        <v>4.25</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>1.78</v>
       </c>
       <c r="J42" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K42" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M42" t="n">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O42" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="P42" t="n">
         <v>1.3</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R42" t="n">
         <v>1.57</v>
       </c>
       <c r="S42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.32</v>
+        <v>1.9</v>
       </c>
       <c r="U42" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V42" t="n">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
       <c r="W42" t="n">
         <v>3</v>
       </c>
       <c r="X42" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.76</v>
+        <v>1.18</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AA42" t="n">
-        <v>3.33</v>
+        <v>2.82</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -5344,80 +5344,80 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Železničar Pančevo</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.46</v>
+        <v>6.2</v>
       </c>
       <c r="H43" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="I43" t="n">
-        <v>5.5</v>
+        <v>1.41</v>
       </c>
       <c r="J43" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K43" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L43" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="N43" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="O43" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="P43" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="R43" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="S43" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="T43" t="n">
-        <v>1.11</v>
+        <v>2.8</v>
       </c>
       <c r="U43" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="V43" t="n">
-        <v>2.55</v>
+        <v>1.05</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="X43" t="n">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.92</v>
+        <v>2.28</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.29</v>
+        <v>3.91</v>
       </c>
       <c r="AB43" t="n">
         <v>0</v>
@@ -5463,76 +5463,76 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H44" t="n">
         <v>3.8</v>
       </c>
       <c r="I44" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="J44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L44" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M44" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="N44" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="O44" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="P44" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="S44" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="T44" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="U44" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="V44" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.08</v>
+        <v>1.68</v>
       </c>
       <c r="AA44" t="n">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="AB44" t="n">
         <v>0</v>
@@ -5562,7 +5562,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Belgium First Division B</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -5574,80 +5574,80 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FCV Dender EH</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="I45" t="n">
-        <v>2.3</v>
+        <v>3.31</v>
       </c>
       <c r="J45" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="O45" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P45" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.78</v>
+        <v>1.12</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AB45" t="n">
         <v>0</v>
@@ -5702,25 +5702,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="H46" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N46" t="n">
         <v>1.42</v>
@@ -5729,10 +5729,10 @@
         <v>2.58</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R46" t="n">
         <v>1.44</v>
@@ -5741,13 +5741,13 @@
         <v>2.63</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W46" t="n">
         <v>2.33</v>
@@ -5817,13 +5817,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="I47" t="n">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="J47" t="n">
         <v>1.07</v>
@@ -5838,10 +5838,10 @@
         <v>3.3</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O47" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P47" t="n">
         <v>1.41</v>
@@ -5892,16 +5892,16 @@
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG47" t="n">
         <v>1.8</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="48">
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>5.39</v>
       </c>
       <c r="J48" t="n">
         <v>1.01</v>
@@ -5953,10 +5953,10 @@
         <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O48" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="P48" t="n">
         <v>1.29</v>
@@ -6047,13 +6047,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>5.02</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
@@ -6068,10 +6068,10 @@
         <v>3.2</v>
       </c>
       <c r="N49" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="O49" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="P49" t="n">
         <v>1.39</v>
@@ -6153,85 +6153,85 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Drogheda United</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>21</v>
+        <v>3.25</v>
       </c>
       <c r="H50" t="n">
-        <v>9.25</v>
+        <v>3.55</v>
       </c>
       <c r="I50" t="n">
-        <v>1.09</v>
+        <v>2.04</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="O50" t="n">
-        <v>2.44</v>
+        <v>1.98</v>
       </c>
       <c r="P50" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
-        <v>2.63</v>
+        <v>1.7</v>
       </c>
       <c r="S50" t="n">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="T50" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>0.57</v>
+        <v>1.27</v>
       </c>
       <c r="X50" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.96</v>
+        <v>1.65</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AA50" t="n">
-        <v>2.52</v>
+        <v>2.82</v>
       </c>
       <c r="AB50" t="n">
-        <v>6.09</v>
+        <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
@@ -6268,100 +6268,100 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Drogheda United</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.25</v>
+        <v>1.94</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N51" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="O51" t="n">
-        <v>2.15</v>
+        <v>1.76</v>
       </c>
       <c r="P51" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R51" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W51" t="n">
-        <v>1.27</v>
+        <v>1.93</v>
       </c>
       <c r="X51" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="52">
@@ -6383,100 +6383,100 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.98</v>
+        <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="I52" t="n">
-        <v>3.4</v>
+        <v>1.15</v>
       </c>
       <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U52" t="n">
         <v>1.04</v>
       </c>
-      <c r="K52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="V52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI52" t="n">
         <v>3.2</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="H53" t="n">
         <v>3.7</v>
       </c>
       <c r="I53" t="n">
-        <v>5.25</v>
+        <v>5.6</v>
       </c>
       <c r="J53" t="n">
         <v>1.06</v>
@@ -6528,10 +6528,10 @@
         <v>3.3</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O53" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="P53" t="n">
         <v>1.4</v>
@@ -6579,25 +6579,25 @@
         <v>3.83</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG53" t="n">
         <v>1.9</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -6613,106 +6613,106 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cardiff MU</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>1.25</v>
+        <v>3.01</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L54" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="M54" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="N54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB54" t="n">
         <v>1.5</v>
       </c>
-      <c r="O54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T54" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W54" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="X54" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
@@ -6724,110 +6724,110 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="J55" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="L55" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M55" t="n">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="N55" t="n">
-        <v>1.72</v>
+        <v>2.29</v>
       </c>
       <c r="O55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W55" t="n">
+        <v>3</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AG55" t="n">
         <v>2.1</v>
       </c>
-      <c r="P55" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S55" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1.72</v>
-      </c>
       <c r="AH55" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AI55" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -6839,104 +6839,104 @@
         </is>
       </c>
       <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>9</v>
+      </c>
+      <c r="H56" t="n">
         <v>5</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3.35</v>
-      </c>
       <c r="I56" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="J56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K56" t="n">
+        <v>11</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V56" t="n">
         <v>1.07</v>
       </c>
-      <c r="K56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N56" t="n">
+      <c r="W56" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG56" t="n">
         <v>2.2</v>
       </c>
-      <c r="O56" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W56" t="n">
-        <v>3</v>
-      </c>
-      <c r="X56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AH56" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="AI56" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6967,13 +6967,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="J57" t="n">
         <v>1.02</v>
@@ -6988,10 +6988,10 @@
         <v>3.48</v>
       </c>
       <c r="N57" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O57" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="P57" t="n">
         <v>1.4</v>
@@ -7039,25 +7039,25 @@
         <v>1.82</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG57" t="n">
         <v>1.83</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>France Ligue 1</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
@@ -7069,104 +7069,104 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FC Cartagena</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.75</v>
+        <v>1.93</v>
       </c>
       <c r="H58" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K58" t="n">
+        <v>11</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W58" t="n">
         <v>3</v>
       </c>
-      <c r="I58" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K58" t="n">
-        <v>7</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M58" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U58" t="n">
+      <c r="X58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y58" t="n">
         <v>1.3</v>
       </c>
-      <c r="V58" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Z58" t="n">
-        <v>1.34</v>
+        <v>1.84</v>
       </c>
       <c r="AA58" t="n">
-        <v>2.86</v>
+        <v>3.14</v>
       </c>
       <c r="AB58" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="AC58" t="n">
         <v>7.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="AE58" t="n">
         <v>1.3</v>
       </c>
       <c r="AF58" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AG58" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AH58" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="59">
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="H59" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="I59" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J59" t="n">
         <v>1.12</v>
@@ -7212,16 +7212,16 @@
         <v>7</v>
       </c>
       <c r="L59" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M59" t="n">
         <v>2.4</v>
       </c>
       <c r="N59" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P59" t="n">
         <v>1.57</v>
@@ -7287,7 +7287,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>France Ligue 1</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -7299,104 +7299,104 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>FC Cartagena</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>2.66</v>
       </c>
       <c r="H60" t="n">
-        <v>4.1</v>
+        <v>2.86</v>
       </c>
       <c r="I60" t="n">
-        <v>3.55</v>
+        <v>2.56</v>
       </c>
       <c r="J60" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K60" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L60" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="M60" t="n">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N60" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="O60" t="n">
-        <v>2.4</v>
+        <v>1.54</v>
       </c>
       <c r="P60" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="R60" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="S60" t="n">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="T60" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="U60" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V60" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="W60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.84</v>
+        <v>1.34</v>
       </c>
       <c r="AA60" t="n">
-        <v>3.14</v>
+        <v>2.86</v>
       </c>
       <c r="AB60" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="AC60" t="n">
         <v>7.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="AE60" t="n">
         <v>1.3</v>
       </c>
       <c r="AF60" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AG60" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AH60" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="AI60" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="61">
@@ -7436,16 +7436,16 @@
         <v>2.15</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N61" t="n">
         <v>1.8</v>
@@ -7454,10 +7454,10 @@
         <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="R61" t="n">
         <v>1.67</v>
@@ -7466,13 +7466,13 @@
         <v>2.1</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W61" t="n">
         <v>2.5</v>
@@ -7542,19 +7542,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H62" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I62" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L62" t="n">
         <v>1.12</v>
@@ -7563,10 +7563,10 @@
         <v>4.9</v>
       </c>
       <c r="N62" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O62" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="P62" t="n">
         <v>1.25</v>
@@ -7657,13 +7657,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H63" t="n">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="I63" t="n">
-        <v>4.6</v>
+        <v>4.01</v>
       </c>
       <c r="J63" t="n">
         <v>1.07</v>
@@ -7678,10 +7678,10 @@
         <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P63" t="n">
         <v>1.44</v>
@@ -7772,13 +7772,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.31</v>
       </c>
       <c r="H64" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -7793,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="O64" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I65" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -7908,10 +7908,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O65" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="H66" t="n">
         <v>2.85</v>
       </c>
       <c r="I66" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J66" t="n">
         <v>1.12</v>
@@ -8017,10 +8017,10 @@
         <v>6</v>
       </c>
       <c r="L66" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="M66" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N66" t="n">
         <v>2.91</v>
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H68" t="n">
-        <v>3.25</v>
+        <v>3.03</v>
       </c>
       <c r="I68" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -8253,10 +8253,10 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O68" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H69" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I69" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -8368,10 +8368,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O69" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I70" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J70" t="n">
         <v>1.04</v>
@@ -8483,10 +8483,10 @@
         <v>3.5</v>
       </c>
       <c r="N70" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="O70" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="P70" t="n">
         <v>1.36</v>
@@ -8547,6 +8547,236 @@
       </c>
       <c r="AI70" t="n">
         <v>2.87</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>29</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>29</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Atlético GO</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Criciúma</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>7</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-09-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.34</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>6.36</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -690,10 +690,10 @@
         <v>2.45</v>
       </c>
       <c r="W2" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="Y2" t="n">
         <v>1.47</v>
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.89</v>
+        <v>2.92</v>
       </c>
       <c r="H3" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.33</v>
+        <v>2.16</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -805,10 +805,10 @@
         <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="X3" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="Y3" t="n">
         <v>1.44</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>1.08</v>
@@ -887,16 +887,16 @@
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N4" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -920,10 +920,10 @@
         <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="Y4" t="n">
         <v>1.18</v>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>1.07</v>
@@ -1008,10 +1008,10 @@
         <v>3.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P5" t="n">
         <v>1.46</v>
@@ -1035,10 +1035,10 @@
         <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Y5" t="n">
         <v>1.12</v>
@@ -1050,13 +1050,13 @@
         <v>2.49</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1150,10 +1150,10 @@
         <v>1.72</v>
       </c>
       <c r="W6" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y6" t="n">
         <v>1.84</v>
@@ -1174,16 +1174,16 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
         <v>1.02</v>
@@ -1232,16 +1232,16 @@
         <v>9.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
@@ -1265,10 +1265,10 @@
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Y7" t="n">
         <v>1.68</v>
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="J8" t="n">
         <v>1.01</v>
@@ -1353,10 +1353,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="O8" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>1.02</v>
@@ -1468,10 +1468,10 @@
         <v>3.32</v>
       </c>
       <c r="N9" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="P9" t="n">
         <v>1.39</v>
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.85</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
@@ -1586,7 +1586,7 @@
         <v>1.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="P10" t="n">
         <v>1.44</v>
@@ -1652,7 +1652,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Finland Veikkausliiga</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1664,110 +1664,110 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mariehamn</t>
+          <t>Domžale</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Aluminij</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.82</v>
-      </c>
       <c r="Y11" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.42</v>
+        <v>2.83</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD11" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH11" t="n">
         <v>2.1</v>
       </c>
-      <c r="AE11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2.12</v>
-      </c>
       <c r="AI11" t="n">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Slovakia Super Liga</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,110 +1779,110 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K12" t="n">
         <v>9</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Domžale</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Aluminij</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="P12" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="U12" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="V12" t="n">
-        <v>2.35</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.55</v>
+        <v>1.14</v>
       </c>
       <c r="Z12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AE12" t="n">
         <v>1.28</v>
       </c>
-      <c r="AA12" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Slovakia Super Liga</t>
+          <t>Finland Veikkausliiga</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1894,110 +1894,110 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC13" t="n">
         <v>8</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>FK Košice</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Trenčín</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,104 +2009,104 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Osijek</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Varaždin</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="V14" t="n">
         <v>2.3</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="W14" t="n">
         <v>2</v>
       </c>
-      <c r="O14" t="n">
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF14" t="n">
         <v>1.7</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2158,10 +2158,10 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2209,7 +2209,7 @@
         <v>2.2</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF15" t="n">
         <v>1.3</v>
@@ -2227,7 +2227,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2239,104 +2239,104 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Osijek</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Varaždin</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>9.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="N16" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>2.15</v>
+        <v>1.61</v>
       </c>
       <c r="P16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.11</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="V16" t="n">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.91</v>
+        <v>1.33</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.38</v>
+        <v>2.72</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.16</v>
+        <v>1.9</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2367,13 +2367,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
         <v>1.02</v>
@@ -2391,7 +2391,7 @@
         <v>1.57</v>
       </c>
       <c r="O17" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P17" t="n">
         <v>1.28</v>
@@ -2430,28 +2430,28 @@
         <v>2.42</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="18">
@@ -2482,13 +2482,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.69</v>
       </c>
       <c r="I18" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -2503,10 +2503,10 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="O18" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="P18" t="n">
         <v>1.33</v>
@@ -2515,10 +2515,10 @@
         <v>3.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
         <v>1.53</v>
@@ -2545,28 +2545,28 @@
         <v>3.04</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
         <v>1.02</v>
@@ -2618,10 +2618,10 @@
         <v>4.25</v>
       </c>
       <c r="N19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O19" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P19" t="n">
         <v>1.29</v>
@@ -2660,28 +2660,28 @@
         <v>2.76</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.06</v>
@@ -2733,10 +2733,10 @@
         <v>3.1</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
         <v>1.01</v>
@@ -2851,7 +2851,7 @@
         <v>1.57</v>
       </c>
       <c r="O21" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="P21" t="n">
         <v>1.26</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.34</v>
+        <v>4.25</v>
       </c>
       <c r="H22" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
@@ -2963,10 +2963,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="O22" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="P22" t="n">
         <v>1.25</v>
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>5.75</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3078,10 +3078,10 @@
         <v>3.92</v>
       </c>
       <c r="N23" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="O23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="P23" t="n">
         <v>1.29</v>
@@ -3147,7 +3147,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Germany 3. Liga</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3159,110 +3159,110 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M24" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="O24" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="S24" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="U24" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="V24" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6</v>
+        <v>1.16</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AC24" t="n">
         <v>8</v>
       </c>
       <c r="AD24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AI24" t="n">
         <v>2.75</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Germany 3. Liga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3274,104 +3274,104 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L25" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M25" t="n">
-        <v>4.5</v>
+        <v>3.82</v>
       </c>
       <c r="N25" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="O25" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="S25" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="U25" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="V25" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="W25" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.16</v>
+        <v>0.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AC25" t="n">
         <v>8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="AI25" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="26">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J26" t="n">
         <v>1.08</v>
@@ -3426,7 +3426,7 @@
         <v>2.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="P26" t="n">
         <v>1.44</v>
@@ -3492,7 +3492,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3504,104 +3504,104 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.24</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.95</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
         <v>9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N27" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S27" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="T27" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="U27" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V27" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AA27" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD27" t="n">
         <v>3.16</v>
       </c>
-      <c r="AB27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="AI27" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="28">
@@ -3623,22 +3623,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Helsingborg</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AFC Eskilstuna</t>
+          <t>Örebro</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
@@ -3647,16 +3647,16 @@
         <v>9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O28" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3665,37 +3665,37 @@
         <v>2.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T28" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="U28" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V28" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="X28" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.94</v>
+        <v>3.16</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="AC28" t="n">
         <v>7.5</v>
@@ -3704,25 +3704,25 @@
         <v>2.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AI28" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3734,104 +3734,104 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Helsingborg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>AFC Eskilstuna</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>3.79</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
         <v>9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N29" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="P29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S29" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T29" t="n">
         <v>1.25</v>
       </c>
       <c r="U29" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH29" t="n">
         <v>1.83</v>
       </c>
-      <c r="W29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH29" t="n">
+      <c r="AI29" t="n">
         <v>2.35</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="30">
@@ -3862,13 +3862,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="H30" t="n">
         <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="J30" t="n">
         <v>1.02</v>
@@ -3883,10 +3883,10 @@
         <v>4.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="O30" t="n">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="P30" t="n">
         <v>1.3</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J31" t="n">
         <v>1.03</v>
@@ -3998,10 +3998,10 @@
         <v>4.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P31" t="n">
         <v>1.29</v>
@@ -4010,10 +4010,10 @@
         <v>3.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
         <v>2.05</v>
@@ -4052,13 +4052,13 @@
         <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J32" t="n">
         <v>1.02</v>
@@ -4113,10 +4113,10 @@
         <v>4.33</v>
       </c>
       <c r="N32" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O32" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P32" t="n">
         <v>1.29</v>
@@ -4155,13 +4155,13 @@
         <v>3.18</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>1.43</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AH32" t="n">
         <v>2.05</v>
@@ -4182,7 +4182,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Netherlands Eredivisie</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4194,110 +4194,110 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Dinamo Bucureşti</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>SSC Farul</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.82</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3.98</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.78</v>
+        <v>2.6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>17</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L33" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>4.45</v>
+        <v>3.24</v>
       </c>
       <c r="N33" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="O33" t="n">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="P33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.27</v>
-      </c>
       <c r="V33" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AA33" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="AF33" t="n">
-        <v>1.21</v>
+        <v>1.85</v>
       </c>
       <c r="AG33" t="n">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="AI33" t="n">
-        <v>2.02</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Belgium First Division B</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4309,110 +4309,110 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dinamo Bucureşti</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SSC Farul</t>
+          <t>FCV Dender EH</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W34" t="n">
         <v>3</v>
       </c>
-      <c r="H34" t="n">
+      <c r="X34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA34" t="n">
         <v>3.15</v>
       </c>
-      <c r="I34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K34" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M34" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="AB34" t="n">
         <v>1.85</v>
       </c>
-      <c r="S34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AA34" t="n">
+      <c r="AC34" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH34" t="n">
         <v>3.2</v>
       </c>
-      <c r="AB34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AI34" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -4424,104 +4424,104 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="N35" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="O35" t="n">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="S35" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="U35" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="V35" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W35" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.76</v>
+        <v>3.33</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="36">
@@ -4543,100 +4543,100 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.61</v>
+        <v>2.55</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="J36" t="n">
         <v>1.02</v>
       </c>
       <c r="K36" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L36" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M36" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="O36" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="P36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="S36" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="U36" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="V36" t="n">
-        <v>2.3</v>
+        <v>1.48</v>
       </c>
       <c r="W36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="Z36" t="n">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.91</v>
+        <v>3.17</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="37">
@@ -4667,52 +4667,52 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
         <v>3.3</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.75</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0.5</v>
@@ -4730,28 +4730,28 @@
         <v>3.45</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="38">
@@ -4773,22 +4773,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="J38" t="n">
         <v>1.02</v>
@@ -4803,10 +4803,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O38" t="n">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="P38" t="n">
         <v>1.25</v>
@@ -4815,58 +4815,58 @@
         <v>3.6</v>
       </c>
       <c r="R38" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="S38" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="U38" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="V38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1.48</v>
       </c>
-      <c r="W38" t="n">
-        <v>2</v>
-      </c>
-      <c r="X38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1.64</v>
-      </c>
       <c r="Z38" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.17</v>
+        <v>2.76</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="39">
@@ -4888,100 +4888,100 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
         <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L39" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M39" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="O39" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="P39" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="R39" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="S39" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="T39" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="U39" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="V39" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="W39" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AG39" t="n">
         <v>1.72</v>
       </c>
-      <c r="Z39" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="40">
@@ -5003,100 +5003,100 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>1.61</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="J40" t="n">
         <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40" t="n">
         <v>1.16</v>
       </c>
       <c r="M40" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="N40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V40" t="n">
         <v>2.3</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T40" t="n">
+      <c r="W40" t="n">
+        <v>3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF40" t="n">
         <v>1.52</v>
       </c>
-      <c r="U40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="41">
@@ -5118,100 +5118,100 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K41" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="M41" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="N41" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="O41" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AE41" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -5233,106 +5233,106 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.6</v>
+        <v>1.46</v>
       </c>
       <c r="H42" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I42" t="n">
-        <v>1.78</v>
+        <v>5.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K42" t="n">
         <v>11</v>
       </c>
       <c r="L42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AB42" t="n">
         <v>1.2</v>
       </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W42" t="n">
+      <c r="AC42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI42" t="n">
         <v>3</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -5344,110 +5344,110 @@
         </is>
       </c>
       <c r="D43" t="n">
+        <v>7</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K43" t="n">
+        <v>11</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC43" t="n">
         <v>8</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Železničar Pančevo</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Partizan</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K43" t="n">
-        <v>9</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X43" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -5459,110 +5459,110 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Železničar Pančevo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L44" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="N44" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O44" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="P44" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="S44" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="T44" t="n">
-        <v>1.88</v>
+        <v>2.8</v>
       </c>
       <c r="U44" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="V44" t="n">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="W44" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X44" t="n">
         <v>2.33</v>
       </c>
-      <c r="X44" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Y44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AE44" t="n">
         <v>1.29</v>
       </c>
-      <c r="Z44" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Belgium First Division B</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -5574,104 +5574,104 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FCV Dender EH</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>3.31</v>
+        <v>2.3</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="N45" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="O45" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W45" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.12</v>
+        <v>1.78</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.03</v>
+        <v>1.47</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="46">
@@ -5702,13 +5702,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I46" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J46" t="n">
         <v>1.02</v>
@@ -5723,10 +5723,10 @@
         <v>4.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="O46" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="P46" t="n">
         <v>1.25</v>
@@ -5735,10 +5735,10 @@
         <v>3.75</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T46" t="n">
         <v>1.25</v>
@@ -5783,10 +5783,10 @@
         <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="47">
@@ -5820,10 +5820,10 @@
         <v>2.55</v>
       </c>
       <c r="H47" t="n">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="J47" t="n">
         <v>1.07</v>
@@ -5838,10 +5838,10 @@
         <v>3.3</v>
       </c>
       <c r="N47" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O47" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P47" t="n">
         <v>1.41</v>
@@ -5889,7 +5889,7 @@
         <v>2.44</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF47" t="n">
         <v>1.43</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H48" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I48" t="n">
-        <v>5.39</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
         <v>1.01</v>
@@ -5953,10 +5953,10 @@
         <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O48" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="P48" t="n">
         <v>1.29</v>
@@ -6047,13 +6047,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="H49" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
-        <v>5.02</v>
+        <v>4.25</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
@@ -6068,10 +6068,10 @@
         <v>3.2</v>
       </c>
       <c r="N49" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O49" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P49" t="n">
         <v>1.39</v>
@@ -6162,13 +6162,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O50" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -6201,13 +6201,13 @@
         <v>2.05</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W50" t="n">
         <v>1.27</v>
@@ -6237,16 +6237,16 @@
         <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="51">
@@ -6268,100 +6268,100 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>St Patrick's Athl.</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.94</v>
+        <v>34</v>
       </c>
       <c r="H51" t="n">
-        <v>3.35</v>
+        <v>8.5</v>
       </c>
       <c r="I51" t="n">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U51" t="n">
         <v>1.04</v>
       </c>
-      <c r="K51" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="V51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI51" t="n">
         <v>3.2</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W51" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>3.48</v>
       </c>
     </row>
     <row r="52">
@@ -6383,100 +6383,100 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>St Patrick's Athl.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>14</v>
+        <v>1.75</v>
       </c>
       <c r="H52" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="I52" t="n">
-        <v>1.15</v>
+        <v>4.25</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="L52" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="M52" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="N52" t="n">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="O52" t="n">
-        <v>2.44</v>
+        <v>1.73</v>
       </c>
       <c r="P52" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="R52" t="n">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
       <c r="S52" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="T52" t="n">
-        <v>4.7</v>
+        <v>1.29</v>
       </c>
       <c r="U52" t="n">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="V52" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="W52" t="n">
-        <v>0.57</v>
+        <v>1.93</v>
       </c>
       <c r="X52" t="n">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.96</v>
+        <v>1.56</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AA52" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="AB52" t="n">
-        <v>6.09</v>
+        <v>1.82</v>
       </c>
       <c r="AC52" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD52" t="n">
-        <v>1.19</v>
+        <v>2.33</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AG52" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AH52" t="n">
-        <v>2.41</v>
+        <v>2.58</v>
       </c>
       <c r="AI52" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="53">
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H53" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I53" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J53" t="n">
         <v>1.06</v>
@@ -6528,10 +6528,10 @@
         <v>3.3</v>
       </c>
       <c r="N53" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="O53" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="P53" t="n">
         <v>1.4</v>
@@ -6597,7 +6597,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Belgium Pro League</t>
+          <t>Republic of Ireland Premier Division</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
@@ -6609,104 +6609,104 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Standard Liège</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>KVC Westerlo</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>3.01</v>
+        <v>2.25</v>
       </c>
       <c r="J54" t="n">
         <v>1.02</v>
       </c>
       <c r="K54" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L54" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M54" t="n">
-        <v>4.2</v>
+        <v>3.48</v>
       </c>
       <c r="N54" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="O54" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="P54" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R54" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S54" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>1.28</v>
+        <v>1.98</v>
       </c>
       <c r="U54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V54" t="n">
         <v>1.2</v>
       </c>
-      <c r="V54" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W54" t="n">
-        <v>0.33</v>
+        <v>1.4</v>
       </c>
       <c r="X54" t="n">
-        <v>0.33</v>
+        <v>1.87</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AA54" t="n">
-        <v>2.65</v>
+        <v>2.78</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.5</v>
+        <v>2.39</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD54" t="n">
-        <v>3</v>
+        <v>1.82</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AF54" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AG54" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AH54" t="n">
-        <v>2.1</v>
+        <v>2.57</v>
       </c>
       <c r="AI54" t="n">
-        <v>3</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="55">
@@ -6737,13 +6737,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H55" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -6758,10 +6758,10 @@
         <v>2.95</v>
       </c>
       <c r="N55" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -6827,7 +6827,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>Belgium Pro League</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
@@ -6843,106 +6843,106 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cardiff MU</t>
+          <t>Standard Liège</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>KVC Westerlo</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="I56" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K56" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L56" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="M56" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="N56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB56" t="n">
         <v>1.5</v>
       </c>
-      <c r="O56" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W56" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="X56" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AC56" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>1.14</v>
+        <v>3</v>
       </c>
       <c r="AE56" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="AF56" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AG56" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="AH56" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Republic of Ireland Premier Division</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
@@ -6954,104 +6954,104 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Cardiff MU</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.45</v>
+        <v>9</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>2.07</v>
+        <v>1.25</v>
       </c>
       <c r="J57" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K57" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="L57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P57" t="n">
         <v>1.25</v>
       </c>
-      <c r="M57" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="N57" t="n">
+      <c r="Q57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S57" t="n">
         <v>1.86</v>
       </c>
-      <c r="O57" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R57" t="n">
+      <c r="T57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W57" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF57" t="n">
         <v>1.75</v>
       </c>
-      <c r="S57" t="n">
-        <v>2</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X57" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AG57" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AH57" t="n">
-        <v>2.57</v>
+        <v>2.88</v>
       </c>
       <c r="AI57" t="n">
-        <v>3.42</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="58">
@@ -7082,13 +7082,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="H58" t="n">
-        <v>3.82</v>
+        <v>3.75</v>
       </c>
       <c r="I58" t="n">
-        <v>3.46</v>
+        <v>3.8</v>
       </c>
       <c r="J58" t="n">
         <v>1.03</v>
@@ -7103,10 +7103,10 @@
         <v>4.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="O58" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="P58" t="n">
         <v>1.29</v>
@@ -7197,13 +7197,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.71</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="I59" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J59" t="n">
         <v>1.12</v>
@@ -7212,7 +7212,7 @@
         <v>7</v>
       </c>
       <c r="L59" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M59" t="n">
         <v>2.4</v>
@@ -7221,7 +7221,7 @@
         <v>2.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="P59" t="n">
         <v>1.57</v>
@@ -7312,13 +7312,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="H60" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="I60" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="J60" t="n">
         <v>1.09</v>
@@ -7330,13 +7330,13 @@
         <v>1.5</v>
       </c>
       <c r="M60" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N60" t="n">
         <v>2.45</v>
       </c>
-      <c r="N60" t="n">
-        <v>2.3</v>
-      </c>
       <c r="O60" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P60" t="n">
         <v>1.53</v>
@@ -7427,13 +7427,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J61" t="n">
         <v>1.05</v>
@@ -7448,10 +7448,10 @@
         <v>3.75</v>
       </c>
       <c r="N61" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P61" t="n">
         <v>1.32</v>
@@ -7460,10 +7460,10 @@
         <v>3.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S61" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T61" t="n">
         <v>1.57</v>
@@ -7490,28 +7490,28 @@
         <v>3.39</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="62">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="H62" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I62" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="J62" t="n">
         <v>1.01</v>
@@ -7563,10 +7563,10 @@
         <v>4.9</v>
       </c>
       <c r="N62" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O62" t="n">
-        <v>2.38</v>
+        <v>2.59</v>
       </c>
       <c r="P62" t="n">
         <v>1.25</v>
@@ -7605,28 +7605,28 @@
         <v>2.93</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="63">
@@ -7657,13 +7657,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="H63" t="n">
-        <v>3.47</v>
+        <v>3.3</v>
       </c>
       <c r="I63" t="n">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
         <v>1.07</v>
@@ -7678,10 +7678,10 @@
         <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O63" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P63" t="n">
         <v>1.44</v>
@@ -7772,13 +7772,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="H64" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I64" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -7793,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O64" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -7887,10 +7887,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I65" t="n">
         <v>3.1</v>
@@ -7911,7 +7911,7 @@
         <v>1.73</v>
       </c>
       <c r="O65" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -7977,7 +7977,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -7989,110 +7989,110 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.65</v>
+        <v>1.21</v>
       </c>
       <c r="H66" t="n">
-        <v>2.85</v>
+        <v>5.5</v>
       </c>
       <c r="I66" t="n">
-        <v>2.85</v>
+        <v>10.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L66" t="n">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="M66" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="N66" t="n">
-        <v>2.91</v>
+        <v>1.5</v>
       </c>
       <c r="O66" t="n">
-        <v>1.32</v>
+        <v>2.4</v>
       </c>
       <c r="P66" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="R66" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="S66" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="T66" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="X66" t="n">
-        <v>1.07</v>
+        <v>3</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.41</v>
+        <v>2.26</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.27</v>
+        <v>1.77</v>
       </c>
       <c r="AA66" t="n">
-        <v>2.68</v>
+        <v>4.03</v>
       </c>
       <c r="AB66" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
@@ -8104,104 +8104,104 @@
         </is>
       </c>
       <c r="D67" t="n">
+        <v>29</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K67" t="n">
+        <v>6</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC67" t="n">
         <v>8</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Red Star Belgrade</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Bačka Topola</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>3</v>
-      </c>
-      <c r="X67" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="68">
@@ -8232,52 +8232,52 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N68" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P68" t="n">
         <v>1.5</v>
       </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S68" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W68" t="n">
         <v>1.64</v>
@@ -8304,19 +8304,19 @@
         <v>2.55</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG68" t="n">
         <v>2.1</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="69">
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="H69" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I69" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -8368,10 +8368,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O69" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="H70" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J70" t="n">
         <v>1.04</v>
@@ -8483,10 +8483,10 @@
         <v>3.5</v>
       </c>
       <c r="N70" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="O70" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="P70" t="n">
         <v>1.36</v>
@@ -8568,100 +8568,100 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atlético GO</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2.95</v>
+        <v>3.7</v>
       </c>
       <c r="J71" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L71" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="M71" t="n">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="N71" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="O71" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="P71" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI71" t="n">
         <v>2.15</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U71" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V71" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W71" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X71" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>2.8</v>
       </c>
     </row>
     <row r="72">
@@ -8683,100 +8683,100 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Atlético GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="H72" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="J72" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K72" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L72" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M72" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N72" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="O72" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P72" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y72" t="n">
         <v>1.51</v>
       </c>
-      <c r="Q72" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R72" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T72" t="n">
+      <c r="Z72" t="n">
         <v>1.25</v>
       </c>
-      <c r="U72" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X72" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AA72" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="AB72" t="n">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="AC72" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD72" t="n">
-        <v>3.48</v>
+        <v>2.33</v>
       </c>
       <c r="AE72" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AF72" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AG72" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AH72" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AI72" t="n">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
